--- a/Adatbázisok2.xlsx
+++ b/Adatbázisok2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae02f77faee739cd/Dokumentumok/Elte-4fv-Adatb-zisok/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae02f77faee739cd/Asztali gép/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{168B6EEF-90DB-48D1-9266-12D8D38313AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0760B116-A401-4EDD-B724-F114BCFEEDC0}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{168B6EEF-90DB-48D1-9266-12D8D38313AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5D98DE17-6772-4564-9C55-1E045684D89E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1A54810E-1202-46AB-A139-9893E7228C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Lemez számítások" sheetId="2" r:id="rId1"/>
-    <sheet name="Házi feladat" sheetId="3" r:id="rId2"/>
+    <sheet name="A és D Házi feladat" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -442,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -567,6 +567,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -592,37 +603,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -631,12 +615,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -691,9 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -713,12 +688,48 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1038,7 +1049,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,52 +1058,52 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="7" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="44.42578125" customWidth="1"/>
-    <col min="11" max="11" width="23" style="21" customWidth="1"/>
+    <col min="11" max="11" width="23" style="18" customWidth="1"/>
     <col min="12" max="16" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="J1" s="15" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
+      <c r="J1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="38">
         <v>7200</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="25">
         <f>60000/B2</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1109,140 +1120,140 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="J3" s="61" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="J3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="51">
         <v>8</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="64"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="40">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="J4" s="61" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="J4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="51">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="43">
         <v>4000</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="43">
         <v>1</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="61" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="J5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="51">
         <f>2^8</f>
         <v>256</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="45">
         <v>0.1</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="J6" s="61" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="J6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="51">
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="47">
         <v>16</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
-      <c r="J7" s="65" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="J7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="55">
         <f>K3*2*K4*K5*K6</f>
         <v>1099511627776</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="56">
         <f>K7/1024</f>
         <v>1073741824</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="56">
         <f>L7/1024</f>
         <v>1048576</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="56">
         <f>M7/1024</f>
         <v>1024</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="57">
         <f>N7/1024</f>
         <v>1</v>
       </c>
@@ -1258,27 +1269,27 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="71"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="31">
         <f>B7/ROUND((K6/1000),0)</f>
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1345,14 +1356,14 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="28">
         <f>B13/360*F2</f>
         <v>0.126953125</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5"/>
@@ -1361,33 +1372,33 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="9">
-        <f>B4+K4/B5*D5</f>
+        <f>B4+(K4)/B5*D5</f>
         <v>17.384</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -1400,20 +1411,20 @@
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="28">
         <f>B16+B17+B14</f>
         <v>25.844286458333336</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="5"/>
@@ -1422,15 +1433,15 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -1461,47 +1472,47 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="33">
         <f>B21+B20+B14</f>
         <v>10.754953125</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="69"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="31">
         <f>B14</f>
         <v>0.126953125</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -1549,46 +1560,46 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" s="72" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:11" s="61" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76" t="s">
+      <c r="D29" s="82"/>
+      <c r="E29" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-      <c r="K29" s="73"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="65"/>
+      <c r="K29" s="62"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
+      <c r="A30" s="30">
         <v>8000</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="31">
         <v>0</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="30">
         <v>8000</v>
       </c>
-      <c r="D30" s="78">
+      <c r="D30" s="66">
         <f>B26</f>
         <v>4.293619791666667</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="30">
         <v>8000</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="31">
         <f>B26</f>
         <v>4.293619791666667</v>
       </c>
-      <c r="G30" s="78"/>
+      <c r="G30" s="66"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
@@ -1600,7 +1611,7 @@
       <c r="C31" s="11">
         <v>24000</v>
       </c>
-      <c r="D31" s="79">
+      <c r="D31" s="67">
         <f>D30+ABS(C31-C30)/4000+1+$B$26</f>
         <v>13.587239583333336</v>
       </c>
@@ -1608,10 +1619,10 @@
         <v>24000</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" ref="E31:F35" si="0">F30+ABS(E31-E30)/4000+1+$B$26</f>
+        <f t="shared" ref="F31:F35" si="0">F30+ABS(E31-E30)/4000+1+$B$26</f>
         <v>13.587239583333336</v>
       </c>
-      <c r="G31" s="79"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
@@ -1623,7 +1634,7 @@
       <c r="C32" s="11">
         <v>56000</v>
       </c>
-      <c r="D32" s="79">
+      <c r="D32" s="67">
         <f t="shared" ref="D32:D35" si="1">D31+ABS(C32-C31)/4000+1+$B$26</f>
         <v>26.880859375000004</v>
       </c>
@@ -1634,7 +1645,7 @@
         <f t="shared" si="0"/>
         <v>26.880859375000004</v>
       </c>
-      <c r="G32" s="79"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
@@ -1646,7 +1657,7 @@
       <c r="C33" s="11">
         <v>64000</v>
       </c>
-      <c r="D33" s="79">
+      <c r="D33" s="67">
         <f t="shared" si="1"/>
         <v>34.174479166666671</v>
       </c>
@@ -1657,7 +1668,7 @@
         <f t="shared" si="0"/>
         <v>42.174479166666664</v>
       </c>
-      <c r="G33" s="79"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
@@ -1669,7 +1680,7 @@
       <c r="C34" s="11">
         <v>40000</v>
       </c>
-      <c r="D34" s="79">
+      <c r="D34" s="67">
         <f t="shared" si="1"/>
         <v>45.468098958333336</v>
       </c>
@@ -1680,7 +1691,7 @@
         <f t="shared" si="0"/>
         <v>59.468098958333329</v>
       </c>
-      <c r="G34" s="79"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
@@ -1692,7 +1703,7 @@
       <c r="C35" s="12">
         <v>16000</v>
       </c>
-      <c r="D35" s="80">
+      <c r="D35" s="68">
         <f t="shared" si="1"/>
         <v>56.76171875</v>
       </c>
@@ -1703,7 +1714,7 @@
         <f t="shared" si="0"/>
         <v>70.76171875</v>
       </c>
-      <c r="G35" s="80"/>
+      <c r="G35" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1725,61 +1736,61 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="44.42578125" customWidth="1"/>
-    <col min="11" max="11" width="23" style="21" customWidth="1"/>
+    <col min="11" max="11" width="23" style="18" customWidth="1"/>
     <col min="12" max="16" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="J1" s="15" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
+      <c r="J1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="81">
+      <c r="B2" s="69">
         <v>10000</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="25">
         <f>60000/B2</f>
         <v>6</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1796,158 +1807,158 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="J3" s="61" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="J3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="51">
         <v>5</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="64"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="J4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="51">
         <v>100000</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="77">
         <v>0.2</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="61" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="J5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="51">
         <v>1000</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="70">
         <v>65546</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
-      <c r="J6" s="61" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="J6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="51">
         <v>1024</v>
       </c>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="55">
         <f>K3*2*K4*K5*K6</f>
         <v>1024000000000</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="56">
         <f>K7/1024</f>
         <v>1000000000</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="56">
         <f>L7/1024</f>
         <v>976562.5</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="56">
         <f>M7/1024</f>
         <v>953.67431640625</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="57">
         <f>N7/1024</f>
         <v>0.93132257461547852</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="72">
         <f>B6/ROUND((K6),0)</f>
         <v>64.009765625</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="71"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="73">
         <f>B8-1</f>
         <v>63.009765625</v>
       </c>
@@ -1963,7 +1974,7 @@
       <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="73">
         <f>(360*B5)/K5</f>
         <v>7.1999999999999995E-2</v>
       </c>
@@ -1979,7 +1990,7 @@
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="73">
         <f>(360-360*B5)/K5</f>
         <v>0.28799999999999998</v>
       </c>
@@ -1995,7 +2006,7 @@
       <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="73">
         <f>B11*B8+B10*B9</f>
         <v>22.971515624999999</v>
       </c>
@@ -2008,14 +2019,14 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="86">
+      <c r="B13" s="74">
         <f>B12/360*F2</f>
         <v>0.38285859374999998</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5"/>
@@ -2024,66 +2035,66 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="74">
         <f>(1+0.0002*K4)</f>
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="86">
+      <c r="B16" s="74">
         <f>F2</f>
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="86">
+      <c r="B18" s="74">
         <f>(1+0.0002*(K4/3))</f>
         <v>7.6666666666666679</v>
       </c>
@@ -2096,10 +2107,10 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="86">
+      <c r="B19" s="74">
         <f>F2/2</f>
         <v>3</v>
       </c>
@@ -2112,36 +2123,36 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="72">
         <v>0.13</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="85">
+      <c r="B22" s="73">
         <v>4.17</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2156,7 +2167,7 @@
       <c r="A23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="85">
+      <c r="B23" s="73">
         <f>B22+B21</f>
         <v>4.3</v>
       </c>
@@ -2172,7 +2183,7 @@
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="17">
         <v>32000</v>
       </c>
       <c r="C24" s="7"/>
@@ -2183,51 +2194,51 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="93" t="s">
+      <c r="D26" s="82"/>
+      <c r="E26" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="93"/>
-      <c r="G26" s="94"/>
-    </row>
-    <row r="27" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
+      <c r="F26" s="94"/>
+      <c r="G26" s="80"/>
+    </row>
+    <row r="27" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
         <v>8000</v>
       </c>
-      <c r="B27" s="90">
+      <c r="B27" s="78">
         <v>0</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="30">
         <v>8000</v>
       </c>
       <c r="D27" s="9">
         <f>B23+ABS(C27-B24)/4000+1</f>
         <v>11.3</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="30">
         <v>8000</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="31">
         <f>B23+ABS(E27-B24)/4000+1</f>
         <v>11.3</v>
       </c>
-      <c r="G27" s="78"/>
-      <c r="K27" s="73"/>
+      <c r="G27" s="66"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>48000</v>
       </c>
-      <c r="B28" s="91">
+      <c r="B28" s="79">
         <v>1</v>
       </c>
       <c r="C28" s="11">
@@ -2241,56 +2252,56 @@
         <v>48000</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" ref="F28:F30" si="0">F27+ABS(E28-E27)/4000+1+$B$23</f>
+        <f>F27+ABS(E28-E27)/4000+1+$B$23</f>
         <v>26.6</v>
       </c>
-      <c r="G28" s="79"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>4000</v>
       </c>
-      <c r="B29" s="91">
+      <c r="B29" s="79">
         <v>10</v>
       </c>
       <c r="C29" s="11">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" ref="D29:D30" si="1">D28+ABS(C29-C28)/4000+1+$B$23</f>
-        <v>31.900000000000002</v>
+        <f t="shared" ref="D29:D30" si="0">D28+ABS(C29-C28)/4000+1+$B$23</f>
+        <v>33.9</v>
       </c>
       <c r="E29" s="11">
         <v>4000</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F28:F30" si="1">F28+ABS(E29-E28)/4000+1+$B$23</f>
         <v>42.9</v>
       </c>
-      <c r="G29" s="79"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>40000</v>
       </c>
-      <c r="B30" s="92">
+      <c r="B30" s="17">
         <v>20</v>
       </c>
-      <c r="C30" s="12">
-        <v>48000</v>
+      <c r="C30" s="81">
+        <v>40000</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" si="1"/>
-        <v>39.200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>41.199999999999996</v>
       </c>
       <c r="E30" s="12">
         <v>40000</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="G30" s="80"/>
+      <c r="G30" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="6">
